--- a/Machine learning/docs/original data/rough.xlsx
+++ b/Machine learning/docs/original data/rough.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\BIOINFORMAICS\Machine Learning\Machine learning\docs\original data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6316B58-C547-44E1-9B34-54100AFADB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CBFBC0-A3A3-40B4-8E76-FF47CE89F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,149 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+  <si>
+    <t>CC(=O)Oc1ccccc1C(O)=O</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H](NC(=O)[C@H](CS)NC(=O)[C@H](CCCCN)NC(=O)[C@H](CC(N)=O)NC(=O)CNC(=O)[C@H](CCC(N)=O)NC(=O)CNC(=O)[C@H](CS)NC(=O)[C@@H](NC(=O)[C@H](CC(N)=O)NC(=O)[C@H](CO)NC(=O)CNC(=O)[C@H](CCC(O)=O)NC(=O)[C@H](CS)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CS)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC(N)=O)NC(=O)[C@H](CCC(N)=O)NC(=O)CNC(=O)[C@H](CO)NC(=O)[C@H](CCC(O)=O)NC(=O)[C@@H](NC(=O)[C@H](CS)NC(=O)[C@H](CC(O)=O)NC(=O)[C@@H](NC(=O)[C@H](Cc1ccc(O)cc1)NC(=O)[C@@H](NC(=O)[C@@H](N)CC(C)C)[C@@H](C)O)[C@@H](C)O)[C@@H](C)O)C(C)C)C(=O)N[C@@H](CC(C)C)C(=O)NCC(=O)N[C@@H](CO)C(=O)N[C@@H](CC(O)=O)C(=O)NCC(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CC(N)=O)C(=O)N[C@@H](CCC(N)=O)C(=O)N[C@@H](CS)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H]([C@@H](C)O)C(=O)NCC(=O)N[C@@H](CCC(O)=O)C(=O)NCC(=O)N[C@@H]([C@@H](C)O)C(=O)N2CCC[C@H]2C(=O)N[C@@H](CCCCN)C(=O)N3CCC[C@H]3C(=O)N[C@@H](CCC(N)=O)C(=O)N[C@@H](CO)C(=O)N[C@@H](Cc4[nH]cnc4)C(=O)N[C@@H](CC(N)=O)C(=O)N[C@@H](CC(O)=O)C(=O)NCC(=O)N[C@@H](CC(O)=O)C(=O)N[C@@H](Cc5ccccc5)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H]([C@@H](C)CC)C(=O)N6CCC[C@H]6C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](Cc7ccc(O)cc7)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCC(N)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>CCNC(=O)C1CCCN1C(=O)C(CCCN=C(N)N)NC(=O)C(CC(C)C)NC(=O)C(CC(C)C)NC(=O)C(Cc2ccc(O)cc2)NC(=O)C(CO)NC(=O)C(Cc3c[nH]c4ccccc34)NC(=O)C(Cc5[nH]cnc5)NC(=O)C6CCC(=O)N6</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](NC(=O)[C@H](C)NC(=O)CNC(=O)[C@@H](NC=O)C(C)C)C(=O)N[C@@H](C)C(=O)N[C@H](C(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](Cc1c[nH]c2ccccc12)C(=O)N[C@H](CC(C)C)C(=O)N[C@@H](Cc3c[nH]c4ccccc34)C(=O)N[C@H](CC(C)C)C(=O)N[C@@H](Cc5c[nH]c6ccccc56)C(=O)N[C@H](CC(C)C)C(=O)N[C@@H](Cc7c[nH]c8ccccc78)C(=O)NCCO</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H](NC(=O)CN)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCC(N)=O)C(=O)N[C@H]1CSSC[C@@H]2NC(=O)[C@@H](NC(=O)[C@H](CO)NC(=O)[C@@H](NC(=O)[C@H](CSSC[C@H](NC(=O)[C@H](CC(C)C)NC(=O)[C@H](Cc3[nH]cnc3)NC(=O)[C@H](CCC(N)=O)NC(=O)[C@H](CC(N)=O)NC(=O)[C@@H](NC(=O)[C@@H](N)Cc4ccccc4)C(C)C)C(=O)NCC(=O)N[C@@H](CO)C(=O)N[C@@H](Cc5[nH]cnc5)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](C)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc6ccc(O)cc6)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CSSC[C@H](NC(=O)[C@H](Cc7ccc(O)cc7)NC(=O)[C@H](CC(N)=O)NC(=O)[C@H](CCC(O)=O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CCC(N)=O)NC(=O)[C@H](Cc8ccc(O)cc8)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CO)NC2=O)C(=O)N[C@@H](CC(N)=O)C(O)=O)C(=O)NCC(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCCNC(N)=N)C(=O)NCC(=O)N[C@@H](Cc9ccccc9)C(=O)N[C@@H](Cc%10ccccc%10)C(=O)N[C@@H](Cc%11ccc(O)cc%11)C(=O)N[C@@H]([C@@H](C)O)C(=O)N%12CCC[C@H]%12C(=O)N[C@@H](CCCCN)C(=O)N[C@@H]([C@@H](C)O)C(O)=O)NC1=O)[C@@H](C)O)[C@@H](C)CC</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H](NC(=O)CN)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCC(N)=O)C(=O)N[C@@H](CS)C(=O)N[C@@H](CS)C(=O)N[C@@H]([C@@H](C)O)C(=O)N[C@@H](CO)C(=O)N[C@@H]([C@@H](C)CC)C(=O)N[C@@H](CS)C(=O)N[C@@H](CO)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1ccc(O)cc1)C(=O)N[C@@H](CCC(N)=O)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CC(N)=O)C(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)N[C@@H](CS)C(=O)N[C@@H](CC(N)=O)C(O)=O.CC(C)C[C@H](NC(=O)[C@H](C)NC(=O)[C@H](CCC(O)=O)NC(=O)[C@@H](NC(=O)[C@H](CC(C)C)NC(=O)[C@H](Cc3[nH]cnc3)NC(=O)[C@H](CO)NC(=O)CNC(=O)[C@H](CS)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](Cc4[nH]cnc4)NC(=O)[C@H](CCC(N)=O)NC(=O)[C@H](CC(N)=O)NC(=O)[C@@H](NC(=O)[C@@H](N)Cc5ccccc5)C(C)C)C(C)C)C(=O)N[C@@H](Cc6ccc(O)cc6)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CS)C(=O)NCC(=O)N[C@@H](CCC(O)=O)C(=O)N[C@@H](CCCNC(N)=N)C(=O)NCC(=O)N[C@@H](Cc7ccccc7)C(=O)N[C@@H](Cc8ccccc8)C(=O)N[C@@H](Cc9ccc(O)cc9)C(=O)N[C@@H]([C@@H](C)O)C(=O)N[C@@H](CCCCN)C(=O)N%10CCC[C@H]%10C(=O)N[C@@H]([C@@H](C)O)C(O)=O</t>
+  </si>
+  <si>
+    <t>CCC1NC(=O)C(C(O)C(C)C\C=C\C)N(C)C(=O)C(C(C)C)N(C)C(=O)C(CC(C)C)N(C)C(=O)C(CC(C)C)N(C)C(=O)C(C)NC(=O)C(C)NC(=O)C(CC(C)C)N(C)C(=O)C(NC(=O)C(CC(C)C)N(C)C(=O)CN(C)C1=O)C(C)C</t>
+  </si>
+  <si>
+    <t>NCCCCC(NC(=O)C1CCCN1C(=O)C2CSSCC(N)C(=O)NC(Cc3ccccc3)C(=O)NC(Cc4ccccc4)C(=O)NC(CCC(N)=O)C(=O)NC(CC(N)=O)C(=O)N2)C(=O)NCC(N)=O</t>
+  </si>
+  <si>
+    <t>CCC(C)C1NC(=O)C(Cc2ccc(O)cc2)NC(=O)C(N)CSSCC(NC(=O)C(CC(N)=O)NC(=O)C(NC1=O)C(C)O)C(=O)N3CCCC3C(=O)NC(CC(C)C)C(=O)NCC(N)=O</t>
+  </si>
+  <si>
+    <t>CC(O)C(CO)NC(=O)C1CSSCC(NC(=O)C(N)Cc2ccccc2)C(=O)NC(Cc3ccccc3)C(=O)NC(Cc4c[nH]c5ccccc45)C(=O)NC(CCCCN)C(=O)NC(C(C)O)C(=O)N1</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H]1NC(=O)[C@H](Cc2ccc(O)cc2)NC(=O)[C@@H](N)CSSC[C@H](NC(=O)[C@H](CC(N)=O)NC(=O)[C@H](CCC(N)=O)NC1=O)C(=O)N3CCC[C@H]3C(=O)N[C@@H](CC(C)C)C(=O)NCC(N)=O</t>
+  </si>
+  <si>
+    <t>O.Cc1ncc(CO[P](O)(O)=O)c(C=O)c1O</t>
+  </si>
+  <si>
+    <t>[Co+3]|[C-]#N.C[C@H](CNC(=O)CC[C@]1(C)[C@@H](CC(N)=O)[C@H]2N=C1C(=C3[N-]C(=CC4=NC(=C(C)C5=N[C@]2(C)[C@@](C)(CC(N)=O)[C@@H]5CCC(N)=O)[C@@](C)(CC(N)=O)[C@@H]4CCC(N)=O)C(C)(C)[C@@H]3CCC(N)=O)C)O[P]([O-])(=O)O[C@H]6[C@@H](O)[C@H](O[C@@H]6CO)n7cnc8cc(C)c(C)cc78</t>
+  </si>
+  <si>
+    <t>N[C@@H](Cc1c[nH]cn1)C(O)=O</t>
+  </si>
+  <si>
+    <t>CC(=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](Cc1ccccc1)C(O)=O</t>
+  </si>
+  <si>
+    <t>OC(=O)CCCCC1SCC2NC(=O)NC12</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)CCO</t>
+  </si>
+  <si>
+    <t>NCCCC[C@H](N)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](CCCNC(N)=N)C(O)=O</t>
+  </si>
+  <si>
+    <t>OCC(O)C1OC(=C(O)C1=O)O</t>
+  </si>
+  <si>
+    <t>NCCCNCCCCNCCCN</t>
+  </si>
+  <si>
+    <t>N[C@@H](CC(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>NCCC[C@H](N)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](CCC(N)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>Nc1ncnc2n(cnc12)[C@@H]3O[C@H](CO[P](O)(O)=O)[C@@H](O)[C@H]3O</t>
+  </si>
+  <si>
+    <t>CC\C=C/C/C=C\C\C=C/CCCCCCCC(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](CO)C(O)=O</t>
+  </si>
+  <si>
+    <t>CSCC[C@H](N)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](Cc1ccc(O)cc1)C(O)=O</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)(C)O)[C@H]1CC[C@H]2\C(CCC[C@]12C)=C\C=C3\C[C@@H](O)C[C@H](O)C3=C</t>
+  </si>
+  <si>
+    <t>CC(=C\C=C\C=C(C)\C=C\C=C(C)\C=C\C1=C(C)C[C@@H](O)CC1(C)C)/C=C/C=C(C)/C=C/[C@H]2C(=C[C@H](O)CC2(C)C)C</t>
+  </si>
+  <si>
+    <t>N[C@@H](CSSC[C@H](N)C(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>OC(=O)CCC(O)=O</t>
+  </si>
+  <si>
+    <t>Cc1cc2N=C3C(=O)NC(=O)N=C3N(CC(O)C(O)C(O)CO)c2cc1C</t>
+  </si>
+  <si>
+    <t>CC(=O)N[C@H]1C(O)O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+  </si>
+  <si>
+    <t>N[C@@H](CCC(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](CCC(=O)N[C@@H](CS)C(=O)NCC(O)=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>NCC(O)=O</t>
+  </si>
+  <si>
+    <t>Cc1ncc(CO)c(C=O)c1O</t>
+  </si>
+  <si>
+    <t>CN(CC(O)=O)C(N)=N</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@H](N)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](Cc1c[nH]c2ccccc12)C(O)=O</t>
+  </si>
+  <si>
+    <t>N[C@@H](CS)C(O)=O</t>
+  </si>
+  <si>
+    <t>[Cl-].Cc1ncc(C[n+]2csc(CCO)c2C)c(N)n1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,507 +534,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>408.15</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>331.15</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>334.15</v>
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>340.15</v>
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>344.15</v>
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>425.65</v>
+      <c r="A6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>330.55</v>
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>333.15</v>
+      <c r="A8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>334.15</v>
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>326.14999999999998</v>
+      <c r="A10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>349.15</v>
+      <c r="A11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>333.15</v>
+      <c r="A12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>326.14999999999998</v>
+      <c r="A13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>334.15</v>
+      <c r="A14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>278.14999999999998</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>330.15</v>
+      <c r="A16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>328.15</v>
+      <c r="A17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>502.65</v>
+      <c r="A18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>343.15</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>333.15</v>
+      <c r="A20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>354.15</v>
+      <c r="A21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>333.15</v>
+      <c r="A22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>328.15</v>
+      <c r="A23" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>334.15</v>
+      <c r="A24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>331.15</v>
+      <c r="A25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>334.15</v>
+      <c r="A26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>328.15</v>
+      <c r="A27" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>354.15</v>
+      <c r="A28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>354.15</v>
+      <c r="A29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>324.64999999999998</v>
+      <c r="A30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>349.15</v>
+      <c r="A31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>334.15</v>
+      <c r="A32" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>334.15</v>
+      <c r="A33" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>334.15</v>
+      <c r="A34" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>328.15</v>
+      <c r="A35" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>334.15</v>
+      <c r="A36" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>328.15</v>
+      <c r="A37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>334.15</v>
+      <c r="A38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>354.65</v>
+      <c r="A39" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>334.15</v>
+      <c r="A40" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>334.15</v>
+      <c r="A41" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>334.15</v>
+      <c r="A42" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>334.15</v>
+      <c r="A43" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>334.15</v>
+      <c r="A44" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>334.15</v>
+      <c r="A45" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>349.15</v>
+      <c r="A46" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>359.15</v>
+      <c r="A47" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>322.14999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>422.65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>495.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>328.15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>328.15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>391.83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>327.14999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>427.65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>466.15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>334.15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>334.15</v>
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>334.15</v>
+      <c r="A65" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>334.15</v>
+      <c r="A66" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>412.15</v>
+      <c r="A67" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>623.15</v>
+      <c r="A68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>558.15</v>
+      <c r="A69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>286.95</v>
+      <c r="A70" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>549.15</v>
+      <c r="A71" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>505.15</v>
+      <c r="A72" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>518.65</v>
+      <c r="A73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>497.15</v>
+      <c r="A74" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>517.15</v>
+      <c r="A75" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>463.15</v>
+      <c r="A76" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>302.14999999999998</v>
+      <c r="A77" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>543.15</v>
+      <c r="A78" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>413.15</v>
+      <c r="A79" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>458.15</v>
+      <c r="A80" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>454.65</v>
+      <c r="A81" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>261.85000000000002</v>
+      <c r="A82" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>508.15</v>
+      <c r="A83" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>554.15</v>
+      <c r="A84" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>541.15</v>
+      <c r="A85" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>388.15</v>
+      <c r="A86" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>463.15</v>
+      <c r="A87" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>520.15</v>
+      <c r="A88" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>457.15</v>
+      <c r="A89" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>553.15</v>
+      <c r="A90" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>484.15</v>
+      <c r="A91" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>472.15</v>
+      <c r="A92" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>468.15</v>
+      <c r="A93" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>506.15</v>
+      <c r="A94" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>412.15</v>
+      <c r="A95" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>528.15</v>
+      <c r="A96" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>559.15</v>
+      <c r="A97" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>563.15</v>
+      <c r="A98" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>513.15</v>
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
